--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt91\RemoteFiles\132974_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt91\RemoteFiles\132974_3_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -452,26 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t3105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2511</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t2103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,146 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t2913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2915</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2917</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t0100</t>
   </si>
   <si>
@@ -697,6 +537,126 @@
   <si>
     <t>tputong</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2300</t>
+  </si>
+  <si>
+    <t>t2301</t>
+  </si>
+  <si>
+    <t>t2303</t>
+  </si>
+  <si>
+    <t>t2305</t>
+  </si>
+  <si>
+    <t>t2307</t>
+  </si>
+  <si>
+    <t>t2309</t>
+  </si>
+  <si>
+    <t>t2311</t>
+  </si>
+  <si>
+    <t>t2500</t>
+  </si>
+  <si>
+    <t>t2501</t>
+  </si>
+  <si>
+    <t>t2503</t>
+  </si>
+  <si>
+    <t>t2505</t>
+  </si>
+  <si>
+    <t>t2506</t>
+  </si>
+  <si>
+    <t>t2507</t>
+  </si>
+  <si>
+    <t>t2509</t>
+  </si>
+  <si>
+    <t>t2511</t>
+  </si>
+  <si>
+    <t>t2700</t>
+  </si>
+  <si>
+    <t>t2701</t>
+  </si>
+  <si>
+    <t>t2703</t>
+  </si>
+  <si>
+    <t>t2705</t>
+  </si>
+  <si>
+    <t>t2707</t>
+  </si>
+  <si>
+    <t>t2900</t>
+  </si>
+  <si>
+    <t>t2901</t>
+  </si>
+  <si>
+    <t>t2903</t>
+  </si>
+  <si>
+    <t>t2905</t>
+  </si>
+  <si>
+    <t>t2907</t>
+  </si>
+  <si>
+    <t>t2909</t>
+  </si>
+  <si>
+    <t>t2911</t>
+  </si>
+  <si>
+    <t>t2913</t>
+  </si>
+  <si>
+    <t>t2915</t>
+  </si>
+  <si>
+    <t>t2917</t>
+  </si>
+  <si>
+    <t>t3100</t>
+  </si>
+  <si>
+    <t>t3101</t>
+  </si>
+  <si>
+    <t>t3103</t>
+  </si>
+  <si>
+    <t>t3105</t>
+  </si>
+  <si>
+    <t>t3107</t>
+  </si>
+  <si>
+    <t>t3300</t>
+  </si>
+  <si>
+    <t>t3301</t>
+  </si>
+  <si>
+    <t>t3303</t>
+  </si>
+  <si>
+    <t>t3305</t>
+  </si>
+  <si>
+    <t>t3307</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1041,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1092,10 +1052,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1103,7 +1063,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1114,7 +1074,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1125,7 +1085,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1136,7 +1096,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1147,7 +1107,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1158,7 +1118,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -1169,7 +1129,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -1180,7 +1140,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1191,7 +1151,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -1202,7 +1162,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1213,7 +1173,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1224,7 +1184,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -1235,7 +1195,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1246,7 +1206,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1257,7 +1217,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
@@ -1268,7 +1228,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -1279,7 +1239,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1290,7 +1250,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1301,7 +1261,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1312,7 +1272,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1323,7 +1283,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1334,7 +1294,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1345,7 +1305,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1368,14 +1328,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,7 +1363,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1413,7 +1374,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -1424,7 +1385,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>121</v>
@@ -1435,7 +1396,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>109</v>
@@ -1446,7 +1407,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
@@ -1457,7 +1418,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
@@ -1468,7 +1429,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -1479,7 +1440,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -1490,7 +1451,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
@@ -1501,7 +1462,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
         <v>117</v>
@@ -1512,7 +1473,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -1523,7 +1484,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -1534,7 +1495,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -1545,7 +1506,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
@@ -1556,7 +1517,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
@@ -1567,7 +1528,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
@@ -1578,7 +1539,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -1589,7 +1550,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -1600,7 +1561,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
@@ -1611,7 +1572,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
         <v>79</v>
@@ -1622,7 +1583,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>133</v>
@@ -1633,7 +1594,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
@@ -1644,7 +1605,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
         <v>83</v>
@@ -1655,7 +1616,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
         <v>85</v>
@@ -1666,7 +1627,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
         <v>123</v>
@@ -1677,7 +1638,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>125</v>
@@ -1688,7 +1649,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>127</v>
@@ -1699,7 +1660,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
         <v>129</v>
@@ -1710,7 +1671,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
@@ -1721,7 +1682,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
@@ -1732,10 +1693,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>90</v>
@@ -1743,10 +1704,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
@@ -1754,7 +1715,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
         <v>91</v>
@@ -1765,7 +1726,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
@@ -1776,7 +1737,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
         <v>95</v>
@@ -1787,7 +1748,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
         <v>97</v>
@@ -1798,7 +1759,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
         <v>99</v>
@@ -1808,58 +1769,58 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>177</v>
+      <c r="A41" t="s">
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>178</v>
+      <c r="B42" t="s">
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
